--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3460.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3460.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.646748852238909</v>
+        <v>1.112349152565002</v>
       </c>
       <c r="B1">
-        <v>1.770549911347715</v>
+        <v>1.874949336051941</v>
       </c>
       <c r="C1">
-        <v>2.041306311239497</v>
+        <v>5.44464635848999</v>
       </c>
       <c r="D1">
-        <v>3.299247249796722</v>
+        <v>0.6820975542068481</v>
       </c>
       <c r="E1">
-        <v>7.002414604194928</v>
+        <v>0.7080945372581482</v>
       </c>
     </row>
   </sheetData>
